--- a/main/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:39:16+00:00</t>
+    <t>2025-08-01T06:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:15:10+00:00</t>
+    <t>2025-08-11T13:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -847,7 +847,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -956,7 +956,7 @@
     <t>PractitionerRole.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3068,7 +3068,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>120</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>209</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>214</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>219</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>323</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>333</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>362</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>367</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>380</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>385</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>390</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>395</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>400</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>405</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>410</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>422</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>429</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>585</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>590</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>619</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>631</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>634</v>
       </c>
@@ -18686,12 +18686,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO140">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1330,7 +1330,7 @@
 </t>
   </si>
   <si>
-    <t>Référence vers la location dans PractitionerRole.contained représentant les coordonnées de l'activité (idLocation).</t>
+    <t>The location(s) at which this practitioner provides care</t>
   </si>
   <si>
     <t>The location(s) at which this practitioner provides care.</t>
@@ -9402,7 +9402,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>422</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>78</v>

--- a/main/ig/StructureDefinition-as-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$131</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5187" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4852" uniqueCount="626">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -979,45 +979,6 @@
   </si>
   <si>
     <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm</t>
-  </si>
-  <si>
-    <t>numeroAm</t>
-  </si>
-  <si>
-    <t>[Donnée restreinte] : Identifiant d’activité propre à l’Assurance Maladie. format: 9 digits. synonyme: numeroAM</t>
-  </si>
-  <si>
-    <t>SituationExercice.numeroAM</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.use</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.type</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.system</t>
-  </si>
-  <si>
-    <t>https://www.ameli.fr</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.value</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.period</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.assigner</t>
   </si>
   <si>
     <t>PractitionerRole.active</t>
@@ -2313,7 +2274,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO140"/>
+  <dimension ref="A1:AO131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6348,16 +6309,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6366,10 +6325,10 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>78</v>
@@ -6378,22 +6337,26 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>230</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>312</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>233</v>
+        <v>315</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="R35" t="s" s="2">
         <v>78</v>
       </c>
@@ -6437,13 +6400,13 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>229</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
@@ -6452,27 +6415,27 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>239</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6486,25 +6449,27 @@
         <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>104</v>
+        <v>293</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>105</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>106</v>
+        <v>322</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6552,7 +6517,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>107</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6564,41 +6529,41 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>108</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6610,17 +6575,15 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6657,31 +6620,31 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6701,46 +6664,44 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>248</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>250</v>
+        <v>113</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6764,52 +6725,52 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>256</v>
+        <v>118</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>257</v>
+        <v>108</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6820,10 +6781,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>259</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6846,20 +6807,18 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6883,13 +6842,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6907,7 +6866,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6916,19 +6875,19 @@
         <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>257</v>
+        <v>339</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6939,10 +6898,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6950,7 +6909,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>90</v>
@@ -6965,32 +6924,32 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>271</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="R40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>78</v>
@@ -7026,7 +6985,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7035,33 +6994,33 @@
         <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>278</v>
+        <v>347</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7075,7 +7034,7 @@
         <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>78</v>
@@ -7084,17 +7043,15 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>104</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>283</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -7107,7 +7064,7 @@
         <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>78</v>
@@ -7143,7 +7100,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7161,24 +7118,24 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7192,7 +7149,7 @@
         <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>78</v>
@@ -7201,13 +7158,13 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7258,7 +7215,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7276,13 +7233,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -7290,10 +7247,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7304,7 +7261,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -7316,18 +7273,20 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -7351,37 +7310,33 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -7393,13 +7348,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7407,12 +7362,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7433,26 +7390,24 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q44" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7472,13 +7427,11 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7496,13 +7449,13 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -7511,29 +7464,31 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>371</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7554,17 +7509,19 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7589,13 +7546,11 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7613,13 +7568,13 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
@@ -7628,29 +7583,31 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7662,25 +7619,29 @@
         <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>105</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7704,13 +7665,11 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7728,76 +7687,80 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>107</v>
+        <v>359</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>108</v>
+        <v>366</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D47" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>112</v>
+        <v>384</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>113</v>
+        <v>361</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7821,31 +7784,29 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>118</v>
+        <v>359</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7857,32 +7818,34 @@
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>108</v>
+        <v>366</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7894,7 +7857,7 @@
         <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>78</v>
@@ -7903,18 +7866,20 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7938,13 +7903,11 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7962,44 +7925,46 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>78</v>
       </c>
@@ -8011,7 +7976,7 @@
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>78</v>
@@ -8020,24 +7985,24 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q49" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
         <v>78</v>
       </c>
@@ -8057,13 +8022,11 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -8081,31 +8044,31 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>349</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
@@ -8113,12 +8076,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>78</v>
       </c>
@@ -8127,7 +8092,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>91</v>
@@ -8139,16 +8104,20 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -8172,13 +8141,11 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -8196,13 +8163,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -8211,27 +8178,27 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8242,10 +8209,10 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>78</v>
@@ -8254,13 +8221,13 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>368</v>
+        <v>260</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8287,13 +8254,11 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -8311,13 +8276,13 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
@@ -8329,13 +8294,13 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -8343,10 +8308,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8369,20 +8334,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>260</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8406,27 +8367,31 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>377</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8444,28 +8409,26 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>339</v>
+        <v>414</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8474,7 +8437,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>91</v>
@@ -8483,23 +8446,19 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>260</v>
+        <v>417</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8523,11 +8482,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8545,7 +8506,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8560,31 +8521,29 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8593,7 +8552,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>91</v>
@@ -8602,22 +8561,20 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>260</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8642,29 +8599,29 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8673,37 +8630,35 @@
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>428</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>389</v>
+        <v>429</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>339</v>
+        <v>432</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8715,29 +8670,25 @@
         <v>90</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>105</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8761,11 +8712,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8783,80 +8736,76 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>372</v>
+        <v>107</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>379</v>
+        <v>108</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>397</v>
+        <v>112</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>374</v>
+        <v>113</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8880,29 +8829,31 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>372</v>
+        <v>118</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8914,33 +8865,33 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>379</v>
+        <v>108</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>372</v>
+        <v>434</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>78</v>
@@ -8953,29 +8904,25 @@
         <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>260</v>
+        <v>437</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8999,11 +8946,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -9021,7 +8970,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>372</v>
+        <v>118</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9033,46 +8982,44 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>78</v>
@@ -9081,20 +9028,16 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -9120,9 +9063,11 @@
       <c r="X58" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Y58" s="2"/>
+      <c r="Y58" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -9140,58 +9085,56 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>372</v>
+        <v>445</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>339</v>
+        <v>450</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>78</v>
@@ -9200,19 +9143,19 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>374</v>
+        <v>453</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>375</v>
+        <v>454</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>376</v>
+        <v>455</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -9237,11 +9180,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -9259,13 +9204,13 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>372</v>
+        <v>456</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
@@ -9274,16 +9219,16 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>378</v>
+        <v>458</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>379</v>
+        <v>459</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -9291,10 +9236,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9305,28 +9250,32 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -9352,9 +9301,11 @@
       <c r="X60" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Y60" s="2"/>
+      <c r="Y60" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -9372,13 +9323,13 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
@@ -9387,16 +9338,16 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -9404,10 +9355,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9418,7 +9369,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -9430,15 +9381,17 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9487,13 +9440,13 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
@@ -9505,24 +9458,24 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>426</v>
+        <v>108</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>428</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9533,25 +9486,25 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J62" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>293</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9602,13 +9555,13 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
@@ -9620,13 +9573,13 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>433</v>
+        <v>198</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -9634,12 +9587,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9651,7 +9606,7 @@
         <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
@@ -9660,17 +9615,17 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9707,17 +9662,19 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9729,19 +9686,19 @@
         <v>208</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -9749,10 +9706,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9864,18 +9821,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>80</v>
@@ -9893,14 +9850,12 @@
         <v>111</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9970,7 +9925,7 @@
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9981,20 +9936,20 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>90</v>
@@ -10009,13 +9964,13 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10098,10 +10053,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>453</v>
+        <v>492</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10109,7 +10064,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>90</v>
@@ -10121,16 +10076,16 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>454</v>
+        <v>105</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>455</v>
+        <v>106</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10157,13 +10112,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>456</v>
+        <v>78</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -10181,7 +10136,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>458</v>
+        <v>107</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10190,22 +10145,22 @@
         <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>459</v>
+        <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>462</v>
+        <v>108</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>78</v>
@@ -10213,10 +10168,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10224,10 +10179,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -10236,23 +10191,19 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>465</v>
+        <v>200</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -10288,43 +10239,43 @@
         <v>78</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>469</v>
+        <v>118</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>470</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -10332,10 +10283,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10343,7 +10294,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>90</v>
@@ -10352,32 +10303,30 @@
         <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>78</v>
+        <v>500</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>78</v>
@@ -10395,13 +10344,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>478</v>
+        <v>78</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>479</v>
+        <v>78</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -10419,10 +10368,10 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>90</v>
@@ -10431,19 +10380,19 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>482</v>
+        <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>483</v>
+        <v>198</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>484</v>
+        <v>78</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10451,10 +10400,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10474,20 +10423,18 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>486</v>
+        <v>153</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>489</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -10497,7 +10444,7 @@
         <v>78</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>78</v>
+        <v>506</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>78</v>
@@ -10512,13 +10459,11 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>78</v>
+        <v>507</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10536,7 +10481,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10554,10 +10499,10 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10568,12 +10513,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>78</v>
       </c>
@@ -10591,16 +10538,16 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>293</v>
+        <v>511</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10651,31 +10598,31 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>494</v>
+        <v>118</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>495</v>
+        <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>78</v>
@@ -10683,14 +10630,12 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>497</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10699,7 +10644,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10711,18 +10656,16 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>498</v>
+        <v>104</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>499</v>
+        <v>105</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>438</v>
+        <v>106</v>
       </c>
       <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>439</v>
-      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10770,31 +10713,31 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>435</v>
+        <v>107</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>441</v>
+        <v>78</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>500</v>
+        <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>443</v>
+        <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>444</v>
+        <v>108</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
@@ -10802,21 +10745,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10828,15 +10771,17 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -10873,31 +10818,31 @@
         <v>78</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -10917,21 +10862,23 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10946,7 +10893,7 @@
         <v>111</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>200</v>
+        <v>518</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>201</v>
@@ -10988,16 +10935,16 @@
         <v>78</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>118</v>
@@ -11032,20 +10979,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>90</v>
@@ -11060,13 +11005,13 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>450</v>
+        <v>104</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>451</v>
+        <v>105</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>452</v>
+        <v>106</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11117,19 +11062,19 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -11138,7 +11083,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -11149,10 +11094,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11163,7 +11108,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -11175,13 +11120,13 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11220,31 +11165,31 @@
         <v>78</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -11253,7 +11198,7 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11264,10 +11209,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11275,10 +11220,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -11290,22 +11235,24 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>200</v>
+        <v>497</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>78</v>
@@ -11335,31 +11282,31 @@
         <v>78</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>118</v>
+        <v>501</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11368,7 +11315,7 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11379,10 +11326,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11390,7 +11337,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>90</v>
@@ -11405,24 +11352,22 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>513</v>
+        <v>78</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>78</v>
@@ -11440,13 +11385,11 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>78</v>
+        <v>527</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -11464,10 +11407,10 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>90</v>
@@ -11476,7 +11419,7 @@
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11496,12 +11439,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>78</v>
       </c>
@@ -11522,13 +11467,13 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>517</v>
+        <v>200</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>518</v>
+        <v>201</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11540,7 +11485,7 @@
         <v>78</v>
       </c>
       <c r="S79" t="s" s="2">
-        <v>519</v>
+        <v>78</v>
       </c>
       <c r="T79" t="s" s="2">
         <v>78</v>
@@ -11555,11 +11500,13 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>520</v>
+        <v>78</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -11577,19 +11524,19 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>521</v>
+        <v>118</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11598,7 +11545,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11609,14 +11556,12 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11637,13 +11582,13 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>524</v>
+        <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>525</v>
+        <v>105</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>526</v>
+        <v>106</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11694,19 +11639,19 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11715,7 +11660,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11726,10 +11671,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11740,7 +11685,7 @@
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>78</v>
@@ -11752,13 +11697,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11797,31 +11742,31 @@
         <v>78</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11830,7 +11775,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11841,21 +11786,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11867,16 +11812,16 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>112</v>
+        <v>497</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>113</v>
+        <v>498</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>114</v>
+        <v>499</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11884,7 +11829,7 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>78</v>
+        <v>529</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>78</v>
@@ -11914,31 +11859,31 @@
         <v>78</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>118</v>
+        <v>501</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -11947,7 +11892,7 @@
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11958,14 +11903,12 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11986,13 +11929,13 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>201</v>
+        <v>505</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12043,19 +11986,19 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>118</v>
+        <v>508</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -12064,7 +12007,7 @@
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -12075,12 +12018,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="D84" t="s" s="2">
         <v>78</v>
       </c>
@@ -12101,13 +12046,13 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>105</v>
+        <v>536</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12158,19 +12103,19 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -12179,7 +12124,7 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -12190,10 +12135,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12204,7 +12149,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>78</v>
@@ -12216,13 +12161,13 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12261,31 +12206,31 @@
         <v>78</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12294,7 +12239,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12305,10 +12250,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12316,10 +12261,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12331,24 +12276,22 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>530</v>
+        <v>78</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>78</v>
@@ -12378,31 +12321,31 @@
         <v>78</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12411,7 +12354,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12422,10 +12365,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12433,7 +12376,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>90</v>
@@ -12448,22 +12391,24 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>78</v>
+        <v>535</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>78</v>
@@ -12481,11 +12426,13 @@
         <v>78</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="Y87" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z87" t="s" s="2">
-        <v>540</v>
+        <v>78</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>78</v>
@@ -12503,10 +12450,10 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>90</v>
@@ -12515,7 +12462,7 @@
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12535,14 +12482,12 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12563,13 +12508,13 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>200</v>
+        <v>504</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>201</v>
+        <v>505</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12620,19 +12565,19 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>118</v>
+        <v>508</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -12641,7 +12586,7 @@
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12652,12 +12597,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="D89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12678,13 +12625,13 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12735,19 +12682,19 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12756,7 +12703,7 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12767,10 +12714,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12781,7 +12728,7 @@
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
@@ -12793,13 +12740,13 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12838,31 +12785,31 @@
         <v>78</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -12871,7 +12818,7 @@
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12882,10 +12829,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12893,10 +12840,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
@@ -12908,24 +12855,22 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>542</v>
+        <v>78</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>78</v>
@@ -12955,31 +12900,31 @@
         <v>78</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12988,7 +12933,7 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12999,10 +12944,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13010,7 +12955,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>90</v>
@@ -13025,22 +12970,24 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
-        <v>78</v>
+        <v>542</v>
       </c>
       <c r="S92" t="s" s="2">
         <v>78</v>
@@ -13082,10 +13029,10 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>90</v>
@@ -13094,7 +13041,7 @@
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
@@ -13114,14 +13061,12 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
         <v>78</v>
       </c>
@@ -13142,13 +13087,13 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>201</v>
+        <v>505</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13199,19 +13144,19 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>118</v>
+        <v>508</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
@@ -13220,7 +13165,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13231,12 +13176,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="D94" t="s" s="2">
         <v>78</v>
       </c>
@@ -13257,13 +13204,13 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>105</v>
+        <v>549</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13314,19 +13261,19 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -13335,7 +13282,7 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13346,10 +13293,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13360,7 +13307,7 @@
         <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>78</v>
@@ -13372,13 +13319,13 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13417,31 +13364,31 @@
         <v>78</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13450,7 +13397,7 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13461,10 +13408,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13472,10 +13419,10 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
@@ -13487,24 +13434,22 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>548</v>
+        <v>78</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>78</v>
@@ -13534,31 +13479,31 @@
         <v>78</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -13567,7 +13512,7 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13578,10 +13523,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13589,7 +13534,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>90</v>
@@ -13604,22 +13549,24 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>78</v>
+        <v>548</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>78</v>
@@ -13661,10 +13608,10 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>90</v>
@@ -13673,7 +13620,7 @@
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -13693,14 +13640,12 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
         <v>78</v>
       </c>
@@ -13721,13 +13666,13 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>200</v>
+        <v>504</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>201</v>
+        <v>505</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13778,19 +13723,19 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>118</v>
+        <v>508</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
@@ -13799,7 +13744,7 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13810,12 +13755,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="D99" t="s" s="2">
         <v>78</v>
       </c>
@@ -13836,13 +13783,13 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13893,19 +13840,19 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
@@ -13914,7 +13861,7 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13925,10 +13872,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13939,7 +13886,7 @@
         <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13951,13 +13898,13 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13996,31 +13943,31 @@
         <v>78</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -14029,7 +13976,7 @@
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -14040,10 +13987,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14051,10 +13998,10 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -14066,24 +14013,22 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>555</v>
+        <v>78</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>78</v>
@@ -14113,31 +14058,31 @@
         <v>78</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -14146,7 +14091,7 @@
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
@@ -14157,10 +14102,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14168,7 +14113,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>90</v>
@@ -14183,22 +14128,24 @@
         <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>78</v>
+        <v>555</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>78</v>
@@ -14240,10 +14187,10 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>90</v>
@@ -14252,7 +14199,7 @@
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -14272,14 +14219,12 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>561</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
         <v>78</v>
       </c>
@@ -14300,13 +14245,13 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>562</v>
+        <v>504</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>201</v>
+        <v>505</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14357,19 +14302,19 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>118</v>
+        <v>508</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>78</v>
@@ -14378,7 +14323,7 @@
         <v>78</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -14389,12 +14334,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="C104" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="D104" t="s" s="2">
         <v>78</v>
       </c>
@@ -14415,13 +14362,13 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14472,19 +14419,19 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>78</v>
@@ -14493,7 +14440,7 @@
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>78</v>
@@ -14504,10 +14451,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14518,7 +14465,7 @@
         <v>79</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>78</v>
@@ -14530,13 +14477,13 @@
         <v>78</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14575,31 +14522,31 @@
         <v>78</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>78</v>
@@ -14608,7 +14555,7 @@
         <v>78</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>78</v>
@@ -14619,10 +14566,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14630,10 +14577,10 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>78</v>
@@ -14645,24 +14592,22 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>561</v>
+        <v>78</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>78</v>
@@ -14692,31 +14637,31 @@
         <v>78</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC106" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>78</v>
@@ -14725,7 +14670,7 @@
         <v>78</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>78</v>
@@ -14736,10 +14681,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14747,7 +14692,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>90</v>
@@ -14762,22 +14707,24 @@
         <v>78</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" t="s" s="2">
-        <v>78</v>
+        <v>561</v>
       </c>
       <c r="S107" t="s" s="2">
         <v>78</v>
@@ -14819,10 +14766,10 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>90</v>
@@ -14831,7 +14778,7 @@
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>78</v>
@@ -14851,14 +14798,12 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>78</v>
       </c>
@@ -14879,13 +14824,13 @@
         <v>78</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>200</v>
+        <v>504</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>201</v>
+        <v>505</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14936,19 +14881,19 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>118</v>
+        <v>508</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
@@ -14957,7 +14902,7 @@
         <v>78</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>78</v>
@@ -14968,10 +14913,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>533</v>
+        <v>496</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14979,7 +14924,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>90</v>
@@ -14994,22 +14939,24 @@
         <v>78</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>105</v>
+        <v>497</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>78</v>
+        <v>567</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>78</v>
@@ -15051,10 +14998,10 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>107</v>
+        <v>501</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>90</v>
@@ -15072,7 +15019,7 @@
         <v>78</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
@@ -15083,10 +15030,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15109,13 +15056,13 @@
         <v>78</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>111</v>
+        <v>569</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>200</v>
+        <v>504</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>201</v>
+        <v>505</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15154,31 +15101,31 @@
         <v>78</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC110" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>118</v>
+        <v>508</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>78</v>
@@ -15187,7 +15134,7 @@
         <v>78</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -15198,10 +15145,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>537</v>
+        <v>440</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15221,30 +15168,28 @@
         <v>78</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>510</v>
+        <v>441</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>568</v>
+        <v>78</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>78</v>
+        <v>571</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>78</v>
@@ -15259,13 +15204,13 @@
         <v>78</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>78</v>
+        <v>443</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>78</v>
@@ -15283,42 +15228,42 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>514</v>
+        <v>445</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>198</v>
+        <v>449</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>78</v>
+        <v>450</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>572</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>539</v>
+        <v>451</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15326,31 +15271,35 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>324</v>
+        <v>104</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>78</v>
       </c>
@@ -15398,7 +15347,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>521</v>
+        <v>456</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15413,16 +15362,16 @@
         <v>102</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>78</v>
+        <v>457</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>78</v>
+        <v>458</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>198</v>
+        <v>459</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>78</v>
@@ -15430,14 +15379,12 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
         <v>78</v>
       </c>
@@ -15452,22 +15399,26 @@
         <v>78</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>200</v>
+        <v>461</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>78</v>
       </c>
@@ -15491,13 +15442,13 @@
         <v>78</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>78</v>
@@ -15515,31 +15466,31 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>118</v>
+        <v>467</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
@@ -15550,7 +15501,7 @@
         <v>575</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15570,18 +15521,20 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>104</v>
+        <v>473</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>105</v>
+        <v>474</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N114" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -15630,7 +15583,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>107</v>
+        <v>477</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15642,13 +15595,13 @@
         <v>78</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>108</v>
@@ -15665,7 +15618,7 @@
         <v>576</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>535</v>
+        <v>478</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15676,7 +15629,7 @@
         <v>79</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>78</v>
@@ -15685,16 +15638,16 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>111</v>
+        <v>293</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>200</v>
+        <v>479</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>201</v>
+        <v>480</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15733,54 +15686,54 @@
         <v>78</v>
       </c>
       <c r="AB115" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC115" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>118</v>
+        <v>481</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
         <v>577</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15788,13 +15741,13 @@
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I116" t="s" s="2">
         <v>78</v>
@@ -15803,16 +15756,16 @@
         <v>78</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>137</v>
+        <v>578</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>510</v>
+        <v>579</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>512</v>
+        <v>581</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15820,7 +15773,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>574</v>
+        <v>78</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>78</v>
@@ -15862,19 +15815,19 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>78</v>
@@ -15883,7 +15836,7 @@
         <v>78</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>198</v>
+        <v>582</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>78</v>
@@ -15894,10 +15847,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>539</v>
+        <v>583</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15920,13 +15873,13 @@
         <v>78</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>324</v>
+        <v>104</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>517</v>
+        <v>105</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>518</v>
+        <v>106</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15977,7 +15930,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>521</v>
+        <v>107</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -15989,7 +15942,7 @@
         <v>78</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>78</v>
@@ -15998,7 +15951,7 @@
         <v>78</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>78</v>
@@ -16009,21 +15962,21 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>509</v>
+        <v>584</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>78</v>
@@ -16035,16 +15988,16 @@
         <v>78</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>510</v>
+        <v>112</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>511</v>
+        <v>113</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>512</v>
+        <v>114</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16052,7 +16005,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>580</v>
+        <v>78</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>78</v>
@@ -16094,19 +16047,19 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>78</v>
@@ -16115,7 +16068,7 @@
         <v>78</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>78</v>
@@ -16126,42 +16079,46 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>516</v>
+        <v>585</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>78</v>
+        <v>586</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>582</v>
+        <v>111</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>517</v>
+        <v>587</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>78</v>
       </c>
@@ -16209,19 +16166,19 @@
         <v>78</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>78</v>
@@ -16241,10 +16198,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>453</v>
+        <v>590</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16252,10 +16209,10 @@
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>78</v>
@@ -16264,16 +16221,16 @@
         <v>78</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>175</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>454</v>
+        <v>591</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>455</v>
+        <v>592</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -16285,7 +16242,7 @@
         <v>78</v>
       </c>
       <c r="S120" t="s" s="2">
-        <v>584</v>
+        <v>78</v>
       </c>
       <c r="T120" t="s" s="2">
         <v>78</v>
@@ -16303,10 +16260,10 @@
         <v>253</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>456</v>
+        <v>593</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>457</v>
+        <v>594</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>78</v>
@@ -16324,42 +16281,42 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>458</v>
+        <v>590</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>459</v>
+        <v>78</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>462</v>
+        <v>582</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>464</v>
+        <v>595</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16367,35 +16324,31 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I121" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>78</v>
       </c>
@@ -16443,7 +16396,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>469</v>
+        <v>595</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16458,16 +16411,16 @@
         <v>102</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>470</v>
+        <v>78</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>472</v>
+        <v>582</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>78</v>
@@ -16475,10 +16428,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>473</v>
+        <v>598</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16495,26 +16448,24 @@
         <v>78</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>474</v>
+        <v>600</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>475</v>
+        <v>601</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>78</v>
       </c>
@@ -16538,13 +16489,13 @@
         <v>78</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>478</v>
+        <v>78</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>479</v>
+        <v>78</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>78</v>
@@ -16562,7 +16513,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>480</v>
+        <v>598</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16577,16 +16528,16 @@
         <v>102</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>482</v>
+        <v>78</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>483</v>
+        <v>582</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>484</v>
+        <v>78</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>78</v>
@@ -16594,10 +16545,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>485</v>
+        <v>603</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16617,19 +16568,19 @@
         <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>486</v>
+        <v>599</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>487</v>
+        <v>604</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>488</v>
+        <v>605</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>489</v>
+        <v>602</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16679,7 +16630,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>490</v>
+        <v>603</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16697,10 +16648,10 @@
         <v>78</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>108</v>
+        <v>582</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>78</v>
@@ -16709,12 +16660,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>491</v>
+        <v>606</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16725,25 +16676,25 @@
         <v>79</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>293</v>
+        <v>578</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>492</v>
+        <v>607</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>493</v>
+        <v>608</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -16794,13 +16745,13 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>494</v>
+        <v>606</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>78</v>
@@ -16812,24 +16763,24 @@
         <v>78</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16840,10 +16791,10 @@
         <v>79</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H125" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I125" t="s" s="2">
         <v>78</v>
@@ -16852,17 +16803,15 @@
         <v>78</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>591</v>
+        <v>104</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>592</v>
+        <v>105</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>78</v>
@@ -16911,19 +16860,19 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>590</v>
+        <v>107</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>78</v>
@@ -16932,7 +16881,7 @@
         <v>78</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>595</v>
+        <v>108</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>78</v>
@@ -16943,21 +16892,21 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>78</v>
@@ -16969,15 +16918,17 @@
         <v>78</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
         <v>78</v>
@@ -17026,19 +16977,19 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>78</v>
@@ -17058,14 +17009,14 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>110</v>
+        <v>586</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
@@ -17078,24 +17029,26 @@
         <v>78</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>112</v>
+        <v>587</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>113</v>
+        <v>588</v>
       </c>
       <c r="N127" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P127" t="s" s="2">
         <v>78</v>
       </c>
@@ -17143,7 +17096,7 @@
         <v>78</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>118</v>
+        <v>589</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
@@ -17164,7 +17117,7 @@
         <v>78</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>78</v>
@@ -17175,46 +17128,42 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>599</v>
+        <v>78</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>78</v>
       </c>
@@ -17262,19 +17211,19 @@
         <v>78</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH128" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI128" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>78</v>
@@ -17283,7 +17232,7 @@
         <v>78</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>78</v>
@@ -17294,10 +17243,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17308,7 +17257,7 @@
         <v>79</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>78</v>
@@ -17320,13 +17269,13 @@
         <v>78</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17353,13 +17302,13 @@
         <v>78</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>606</v>
+        <v>78</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>607</v>
+        <v>78</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>78</v>
@@ -17377,13 +17326,13 @@
         <v>78</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>78</v>
@@ -17398,7 +17347,7 @@
         <v>78</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>78</v>
@@ -17407,12 +17356,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17426,7 +17375,7 @@
         <v>90</v>
       </c>
       <c r="H130" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I130" t="s" s="2">
         <v>78</v>
@@ -17435,13 +17384,13 @@
         <v>78</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>324</v>
+        <v>104</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17492,7 +17441,7 @@
         <v>78</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -17513,7 +17462,7 @@
         <v>78</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>78</v>
@@ -17522,12 +17471,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17538,10 +17487,10 @@
         <v>79</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H131" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I131" t="s" s="2">
         <v>78</v>
@@ -17550,18 +17499,18 @@
         <v>78</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="O131" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>625</v>
+      </c>
       <c r="P131" t="s" s="2">
         <v>78</v>
       </c>
@@ -17609,13 +17558,13 @@
         <v>78</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH131" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI131" t="s" s="2">
         <v>78</v>
@@ -17630,1062 +17579,17 @@
         <v>78</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>595</v>
+        <v>108</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="O132" s="2"/>
-      <c r="P132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q133" s="2"/>
-      <c r="R133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO133" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-      <c r="P134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O135" s="2"/>
-      <c r="P135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="P136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="137" hidden="true">
-      <c r="A137" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N137" s="2"/>
-      <c r="O137" s="2"/>
-      <c r="P137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q137" s="2"/>
-      <c r="R137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO137" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="138" hidden="true">
-      <c r="A138" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-      <c r="P138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q138" s="2"/>
-      <c r="R138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO138" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q139" s="2"/>
-      <c r="R139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO139" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N140" s="2"/>
-      <c r="O140" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="P140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q140" s="2"/>
-      <c r="R140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO140" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO140">
+  <autoFilter ref="A1:AO131">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18695,7 +17599,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI139">
+  <conditionalFormatting sqref="A2:AI130">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
